--- a/Puzzle Bobble/Assets/Framework/i18n_texts.xlsx
+++ b/Puzzle Bobble/Assets/Framework/i18n_texts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13350" windowHeight="12435"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>string</t>
   </si>
@@ -99,33 +99,51 @@
     <t>已满</t>
   </si>
   <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>Boost_Title_ExtraSwitchBalls</t>
+  </si>
+  <si>
+    <t>Shows next ball</t>
+  </si>
+  <si>
+    <t>显示下一个球</t>
+  </si>
+  <si>
+    <t>Boost_Title_ColorBall</t>
+  </si>
+  <si>
+    <t>Matches with any color</t>
+  </si>
+  <si>
+    <t>适合任何颜色</t>
+  </si>
+  <si>
+    <t>Boost_Title_AimBoost</t>
+  </si>
+  <si>
+    <t>GIves long aim line</t>
+  </si>
+  <si>
+    <t>提供较长的瞄准线</t>
+  </si>
+  <si>
     <t>Boost_Desc_ExtraSwitchBalls</t>
   </si>
   <si>
-    <t>Shows next ball</t>
-  </si>
-  <si>
-    <t>显示下一个球</t>
-  </si>
-  <si>
     <t>Boost_Desc_ColorBall</t>
   </si>
   <si>
-    <t>Matches with any color</t>
-  </si>
-  <si>
-    <t>适合任何颜色</t>
-  </si>
-  <si>
     <t>Boost_Desc_AimBoost</t>
   </si>
   <si>
-    <t>GIves long aim line</t>
-  </si>
-  <si>
-    <t>提供较长的瞄准线</t>
-  </si>
-  <si>
     <t>Boost_Tip_ExtraSwitchBalls</t>
   </si>
   <si>
@@ -189,6 +207,51 @@
     <t>拯救所有小龙</t>
   </si>
   <si>
+    <t>LevelTargetFailed_SaveBabies</t>
+  </si>
+  <si>
+    <t>You failed to save all of babies</t>
+  </si>
+  <si>
+    <t>拯救小龙失败</t>
+  </si>
+  <si>
+    <t>LevelTargetComplete_SaveBabies</t>
+  </si>
+  <si>
+    <t>All babies SAVED!</t>
+  </si>
+  <si>
+    <t>所有小龙已成功拯救！</t>
+  </si>
+  <si>
+    <t>YourScore</t>
+  </si>
+  <si>
+    <t>YOUR SCORE</t>
+  </si>
+  <si>
+    <t>你的分数</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>NEXT</t>
+  </si>
+  <si>
+    <t>下一局</t>
+  </si>
+  <si>
+    <t>LevelFailed</t>
+  </si>
+  <si>
+    <t>Level Failed</t>
+  </si>
+  <si>
+    <t>闯关失败</t>
+  </si>
+  <si>
     <t>BoostNotAvaliable</t>
   </si>
   <si>
@@ -205,6 +268,30 @@
   </si>
   <si>
     <t>暂停</t>
+  </si>
+  <si>
+    <t>YouLose</t>
+  </si>
+  <si>
+    <t>You lose</t>
+  </si>
+  <si>
+    <t>你失败了</t>
+  </si>
+  <si>
+    <t>RewardedVideo</t>
+  </si>
+  <si>
+    <t>Rewarded video</t>
+  </si>
+  <si>
+    <t>看广告得奖励</t>
+  </si>
+  <si>
+    <t>Booster</t>
+  </si>
+  <si>
+    <t>增益道具</t>
   </si>
 </sst>
 </file>
@@ -212,9 +299,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -247,14 +334,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,108 +464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,187 +492,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,30 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -647,6 +710,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,13 +773,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,133 +816,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1218,14 +1305,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="55.5" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1374,92 +1463,224 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" ht="12" customHeight="1" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="12" customHeight="1" spans="1:3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Puzzle Bobble/Assets/Framework/i18n_texts.xlsx
+++ b/Puzzle Bobble/Assets/Framework/i18n_texts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="15180" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
-  <si>
-    <t>string</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
   <si>
     <t>Key</t>
   </si>
@@ -114,46 +111,52 @@
     <t>Shows next ball</t>
   </si>
   <si>
+    <t>可以看见下一个球</t>
+  </si>
+  <si>
+    <t>Boost_Title_ColorBall</t>
+  </si>
+  <si>
+    <t>Matches with any color</t>
+  </si>
+  <si>
+    <t>适合任何颜色的球</t>
+  </si>
+  <si>
+    <t>Boost_Title_AimBoost</t>
+  </si>
+  <si>
+    <t>GIves long aim line</t>
+  </si>
+  <si>
+    <t>提供较长的瞄准线</t>
+  </si>
+  <si>
+    <t>Boost_Desc_ExtraSwitchBalls</t>
+  </si>
+  <si>
     <t>显示下一个球</t>
   </si>
   <si>
-    <t>Boost_Title_ColorBall</t>
-  </si>
-  <si>
-    <t>Matches with any color</t>
+    <t>Boost_Desc_ColorBall</t>
   </si>
   <si>
     <t>适合任何颜色</t>
   </si>
   <si>
-    <t>Boost_Title_AimBoost</t>
-  </si>
-  <si>
-    <t>GIves long aim line</t>
-  </si>
-  <si>
-    <t>提供较长的瞄准线</t>
-  </si>
-  <si>
-    <t>Boost_Desc_ExtraSwitchBalls</t>
-  </si>
-  <si>
-    <t>Boost_Desc_ColorBall</t>
-  </si>
-  <si>
     <t>Boost_Desc_AimBoost</t>
   </si>
   <si>
-    <t>Boost_Tip_ExtraSwitchBalls</t>
+    <t>Boost_Got_ExtraSwitchBalls</t>
   </si>
   <si>
     <t>You can see extra ball!</t>
   </si>
   <si>
-    <t>你可以看到多出的球!</t>
-  </si>
-  <si>
-    <t>Boost_Tip_ColorBall</t>
+    <t>你可以看见额外的球!</t>
+  </si>
+  <si>
+    <t>Boost_Got_ColorBall</t>
   </si>
   <si>
     <t>You got colorful ball!</t>
@@ -162,7 +165,7 @@
     <t>你获得了彩色球！</t>
   </si>
   <si>
-    <t>Boost_Tip_AimBoost</t>
+    <t>Boost_Got_AimBoost</t>
   </si>
   <si>
     <t>You got super aim!</t>
@@ -186,7 +189,7 @@
     <t>Your lifes was refilled!</t>
   </si>
   <si>
-    <t>你的生活背重新点燃了！</t>
+    <t>你的生活被重新点燃了！</t>
   </si>
   <si>
     <t>YouAreHere</t>
@@ -292,6 +295,87 @@
   </si>
   <si>
     <t>增益道具</t>
+  </si>
+  <si>
+    <t>Title_LifeLost</t>
+  </si>
+  <si>
+    <t>The Lifes Lost!</t>
+  </si>
+  <si>
+    <t>购买体力</t>
+  </si>
+  <si>
+    <t>RefillYourLIFES</t>
+  </si>
+  <si>
+    <t>Refill your LIFES</t>
+  </si>
+  <si>
+    <t>补充你的体力</t>
+  </si>
+  <si>
+    <t>Title_CoinsShop</t>
+  </si>
+  <si>
+    <t>COINS SHOP</t>
+  </si>
+  <si>
+    <t>金币商店</t>
+  </si>
+  <si>
+    <t>Title_Settings</t>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Title_Purchased</t>
+  </si>
+  <si>
+    <t>PURCHASED!</t>
+  </si>
+  <si>
+    <t>增益道具购买成功</t>
+  </si>
+  <si>
+    <t>Title_Tutorial</t>
+  </si>
+  <si>
+    <t>TUTORIAL</t>
+  </si>
+  <si>
+    <t>引导</t>
+  </si>
+  <si>
+    <t>Desc_Target</t>
+  </si>
+  <si>
+    <t>Save all babies for win!</t>
+  </si>
+  <si>
+    <t>为胜利拯救所有小龙!</t>
+  </si>
+  <si>
+    <t>Title_Congratulation</t>
+  </si>
+  <si>
+    <t>CONGRATULATIONS</t>
+  </si>
+  <si>
+    <t>恭喜通关全部关卡！</t>
+  </si>
+  <si>
+    <t>Desc_Congratulation</t>
+  </si>
+  <si>
+    <t>You have passed the game!</t>
+  </si>
+  <si>
+    <t>你已经全部通关了！</t>
   </si>
 </sst>
 </file>
@@ -299,24 +383,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -347,6 +425,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -355,15 +470,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,106 +554,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -492,187 +570,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,6 +777,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -716,10 +803,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -736,15 +821,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,9 +866,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,10 +882,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,145 +894,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,10 +1382,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1318,369 +1395,454 @@
     <col min="3" max="3" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:21">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:21">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" ht="12" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" ht="12" customHeight="1" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Puzzle Bobble/Assets/Framework/i18n_texts.xlsx
+++ b/Puzzle Bobble/Assets/Framework/i18n_texts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
   <si>
     <t>Key</t>
   </si>
@@ -376,6 +376,39 @@
   </si>
   <si>
     <t>你已经全部通关了！</t>
+  </si>
+  <si>
+    <t>ResetLife</t>
+  </si>
+  <si>
+    <t>Reset Life</t>
+  </si>
+  <si>
+    <t>填满体力</t>
+  </si>
+  <si>
+    <t>TwoOursUnlimitedLife</t>
+  </si>
+  <si>
+    <t>2 hours unlimited life</t>
+  </si>
+  <si>
+    <t>2小时无限生命</t>
+  </si>
+  <si>
+    <t>WatchADGetOneLife</t>
+  </si>
+  <si>
+    <t>Watch the AD to get a life</t>
+  </si>
+  <si>
+    <t>观看视频获得一颗生命</t>
+  </si>
+  <si>
+    <t>WatchAD</t>
+  </si>
+  <si>
+    <t>观看</t>
   </si>
 </sst>
 </file>
@@ -419,14 +452,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,9 +466,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,11 +488,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,44 +527,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -516,13 +535,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -531,6 +543,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -547,6 +566,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,37 +603,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,145 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,15 +807,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -866,6 +890,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -882,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,133 +927,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,10 +1415,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1843,6 +1876,50 @@
       </c>
       <c r="C36" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
